--- a/Decision Table-Get.xlsx
+++ b/Decision Table-Get.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="21">
   <si>
     <t>"id":</t>
   </si>
@@ -48,7 +48,37 @@
     <t>innvalid</t>
   </si>
   <si>
+    <t>"hai lam"</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>"2022-03-23"</t>
+  </si>
+  <si>
+    <t>"Hải Anh"</t>
+  </si>
+  <si>
+    <t>"hai lăm"</t>
+  </si>
+  <si>
+    <t>kq của id 34</t>
+  </si>
+  <si>
+    <t>"Dang Quoc Truowng"</t>
+  </si>
+  <si>
     <t>hai tư</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>hai lăm</t>
+  </si>
+  <si>
+    <t>Dang Quoc Truowng</t>
   </si>
 </sst>
 </file>
@@ -61,7 +91,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -73,6 +103,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -421,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -454,6 +496,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,28 +615,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,122 +636,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,6 +777,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1708,7 +1769,7 @@
 "created-date":invalid}</v>
       </c>
     </row>
-    <row r="27" ht="72.5" spans="1:6">
+    <row r="27" ht="101.5" spans="1:6">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1746,23 +1807,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="25.8545454545455" customWidth="1"/>
     <col min="3" max="3" width="16.4272727272727" customWidth="1"/>
     <col min="4" max="4" width="18.7090909090909" customWidth="1"/>
     <col min="5" max="5" width="15.2818181818182" customWidth="1"/>
     <col min="6" max="6" width="18.7272727272727" customWidth="1"/>
+    <col min="7" max="7" width="11.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1780,18 +1842,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="101.5" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="87" spans="1:8">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>2000</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
+      <c r="C2" s="4">
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -1799,14 +1861,20 @@
       <c r="F2" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B2,",",CHAR(10),$C$1,C2,",",CHAR(10),$D$1,D2,",",CHAR(10),$E$1,E2,"}")</f>
         <v>{"id":2000,
-"employee_name":invalid,
-"employee_salary":invalid,
+"employee_name":25,
+"employee_salary":"hai lam",
 "created-date":null}</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="101.5" spans="1:6">
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="101.5" spans="1:8">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
@@ -1818,61 +1886,73 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B3,",",CHAR(10),$C$1,C3,",",CHAR(10),$D$1,D3,",",CHAR(10),$E$1,E3,"}")</f>
         <v>{"id":2000,
 "employee_name":null,
 "employee_salary":null,
-"created-date":valid}</v>
+"created-date":"2022-03-23"}</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="101.5" spans="1:8">
+      <c r="A5" s="4">
         <v>7</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="116" spans="1:6">
-      <c r="A5" s="4">
-        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
+      <c r="C5" s="4">
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B5,",",CHAR(10),$C$1,C5,",",CHAR(10),$D$1,D5,",",CHAR(10),$E$1,E5,"}")</f>
         <v>{"id":34,
-"employee_name":invalid,
+"employee_name":25,
 "employee_salary":null,
-"created-date":invalid}</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="101.5" spans="1:6">
+"created-date":"hai lăm"}</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="72.5" spans="1:8">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>34</v>
@@ -1880,8 +1960,8 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
+      <c r="D6" s="4">
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -1890,22 +1970,28 @@
         <f>CONCATENATE("{",$B$1,B6,",",CHAR(10),$C$1,C6,",",CHAR(10),$D$1,D6,",",CHAR(10),$E$1,E6,"}")</f>
         <v>{"id":34,
 "employee_name":null,
-"employee_salary":valid-not in the list,
+"employee_salary":1,
 "created-date":null}</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="101.5" spans="1:6">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
@@ -1913,92 +1999,107 @@
       <c r="F7" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B7,",",CHAR(10),$C$1,C7,",",CHAR(10),$D$1,D7,",",CHAR(10),$E$1,E7,"}")</f>
         <v>{"id":34,
-"employee_name":valid-not in the list,
-"employee_salary":valid-one of the list,
+"employee_name":"Dang Quoc Truowng",
+"employee_salary":100,
 "created-date":null}</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="87" spans="1:6">
+    <row r="8" s="2" customFormat="1" ht="101.5" spans="1:8">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B8,",",CHAR(10),$C$1,C8,",",CHAR(10),$D$1,D8,",",CHAR(10),$E$1,E8,"}")</f>
         <v>{"id":hai tư,
-"employee_name":invalid,
-"employee_salary":valid-not in the list,
-"created-date":valid}</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="101.5" spans="1:6">
+"employee_name":12345,
+"employee_salary":1,
+"created-date":"2022-03-23"}</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="101.5" spans="1:8">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
+      <c r="D9" s="4">
+        <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B9,",",CHAR(10),$C$1,C9,",",CHAR(10),$D$1,D9,",",CHAR(10),$E$1,E9,"}")</f>
         <v>{"id":hai tư,
 "employee_name":null,
-"employee_salary":valid-one of the list,
-"created-date":invalid}</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="101.5" spans="1:6">
+"employee_salary":1,
+"created-date":hai lăm}</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="116" spans="1:7">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B10,",",CHAR(10),$C$1,C10,",",CHAR(10),$D$1,D10,",",CHAR(10),$E$1,E10,"}")</f>
         <v>{"id":hai tư,
-"employee_name":valid-not in the list,
-"employee_salary":invalid,
-"created-date":invalid}</v>
+"employee_name":"Dang Quoc Truowng",
+"employee_salary":"hai lam",
+"created-date":"hai lăm"}</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="87" spans="1:6">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -2009,14 +2110,14 @@
       <c r="F11" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B11,",",CHAR(10),$C$1,C11,",",CHAR(10),$D$1,D11,",",CHAR(10),$E$1,E11,"}")</f>
         <v>{"id":hai tư,
-"employee_name":valid-one of the list,
+"employee_name":"Hải Anh",
 "employee_salary":null,
 "created-date":null}</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="87" spans="1:6">
+    <row r="12" s="2" customFormat="1" ht="101.5" spans="1:6">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
@@ -2024,32 +2125,32 @@
       <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>4</v>
+      <c r="D12" s="4">
+        <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B12,",",CHAR(10),$C$1,C12,",",CHAR(10),$D$1,D12,",",CHAR(10),$E$1,E12,"}")</f>
         <v>{"id":null,
 "employee_name":null,
-"employee_salary":valid-not in the list,
-"created-date":valid}</v>
+"employee_salary":1,
+"created-date":"2022-03-23"}</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="87" spans="1:6">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>6</v>
@@ -2057,71 +2158,71 @@
       <c r="F13" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B13,",",CHAR(10),$C$1,C13,",",CHAR(10),$D$1,D13,",",CHAR(10),$E$1,E13,"}")</f>
         <v>{"id":null,
-"employee_name":valid-one of the list,
-"employee_salary":invalid,
+"employee_name":"Hải Anh",
+"employee_salary":"hai lam",
 "created-date":null}</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="87" spans="1:6">
+    <row r="14" s="2" customFormat="1" ht="116" spans="1:6">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B14,",",CHAR(10),$C$1,C14,",",CHAR(10),$D$1,D14,",",CHAR(10),$E$1,E14,"}")</f>
         <v>{"id":null,
-"employee_name":valid-not in the list,
+"employee_name":"Dang Quoc Truowng",
 "employee_salary":null,
-"created-date":valid}</v>
+"created-date":"2022-03-23"}</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="101.5" spans="1:6">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B15,",",CHAR(10),$C$1,C15,",",CHAR(10),$D$1,D15,",",CHAR(10),$E$1,E15,"}")</f>
         <v>{"id":null,
-"employee_name":valid-one of the list,
-"employee_salary":valid-not in the list,
-"created-date":invalid}</v>
+"employee_name":"Hải Anh",
+"employee_salary":1,
+"created-date":hai lăm}</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="87" spans="1:6">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
+      <c r="C16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>6</v>
@@ -2129,47 +2230,47 @@
       <c r="F16" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B16,",",CHAR(10),$C$1,C16,",",CHAR(10),$D$1,D16,",",CHAR(10),$E$1,E16,"}")</f>
         <v>{"id":null,
-"employee_name":invalid,
-"employee_salary":valid-one of the list,
+"employee_name":12345,
+"employee_salary":100,
 "created-date":null}</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="116" spans="1:6">
+    <row r="17" s="2" customFormat="1" ht="101.5" spans="1:6">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4">
         <v>2000</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B17,",",CHAR(10),$C$1,C17,",",CHAR(10),$D$1,D17,",",CHAR(10),$E$1,E17,"}")</f>
         <v>{"id":2000,
-"employee_name":valid-one of the list,
+"employee_name":"Hải Anh",
 "employee_salary":null,
-"created-date":invalid}</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="101.5" spans="1:6">
+"created-date":hai lăm}</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="87" spans="1:6">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4">
         <v>2000</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>6</v>
@@ -2177,62 +2278,62 @@
       <c r="F18" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B18,",",CHAR(10),$C$1,C18,",",CHAR(10),$D$1,D18,",",CHAR(10),$E$1,E18,"}")</f>
         <v>{"id":2000,
-"employee_name":valid-not in the list,
-"employee_salary":valid-not in the list,
+"employee_name":Dang Quoc Truowng,
+"employee_salary":1,
 "created-date":null}</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="101.5" spans="1:6">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4">
         <v>2000</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
+        <v>100</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B19,",",CHAR(10),$C$1,C19,",",CHAR(10),$D$1,D19,",",CHAR(10),$E$1,E19,"}")</f>
         <v>{"id":2000,
-"employee_name":valid-one of the list,
-"employee_salary":valid-one of the list,
-"created-date":valid}</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="116" spans="1:6">
+"employee_name":"Hải Anh",
+"employee_salary":100,
+"created-date":"2022-03-23"}</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="101.5" spans="1:6">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4">
         <v>2000</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
+      <c r="C20" s="4">
+        <v>12345</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F20" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B20,",",CHAR(10),$C$1,C20,",",CHAR(10),$D$1,D20,",",CHAR(10),$E$1,E20,"}")</f>
         <v>{"id":2000,
-"employee_name":invalid,
-"employee_salary":valid-not in the list,
-"created-date":invalid}</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="101.5" spans="1:6">
+"employee_name":12345,
+"employee_salary":1,
+"created-date":hai lăm}</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="87" spans="1:6">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>2000</v>
@@ -2240,8 +2341,8 @@
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
+      <c r="D21" s="4">
+        <v>100</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>6</v>
@@ -2250,70 +2351,70 @@
         <f>CONCATENATE("{",$B$1,B21,",",CHAR(10),$C$1,C21,",",CHAR(10),$D$1,D21,",",CHAR(10),$E$1,E21,"}")</f>
         <v>{"id":2000,
 "employee_name":null,
-"employee_salary":valid-one of the list,
+"employee_salary":100,
 "created-date":null}</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="101.5" spans="1:6">
+    <row r="22" s="2" customFormat="1" ht="87" spans="1:6">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4">
         <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B22,",",CHAR(10),$C$1,C22,",",CHAR(10),$D$1,D22,",",CHAR(10),$E$1,E22,"}")</f>
         <v>{"id":34,
-"employee_name":valid-one of the list,
-"employee_salary":valid-not in the list,
-"created-date":valid}</v>
+"employee_name":"Hải Anh",
+"employee_salary":1,
+"created-date":"2022-03-23"}</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="116" spans="1:6">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4">
         <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D23" s="4">
+        <v>100</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B23,",",CHAR(10),$C$1,C23,",",CHAR(10),$D$1,D23,",",CHAR(10),$E$1,E23,"}")</f>
         <v>{"id":34,
-"employee_name":valid-not in the list,
-"employee_salary":valid-one of the list,
-"created-date":invalid}</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="101.5" spans="1:6">
+"employee_name":"Dang Quoc Truowng",
+"employee_salary":100,
+"created-date":hai lăm}</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="72.5" spans="1:6">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
         <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>6</v>
@@ -2321,38 +2422,38 @@
       <c r="F24" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B24,",",CHAR(10),$C$1,C24,",",CHAR(10),$D$1,D24,",",CHAR(10),$E$1,E24,"}")</f>
         <v>{"id":34,
-"employee_name":valid-one of the list,
-"employee_salary":valid-not in the list,
+"employee_name":"Hải Anh",
+"employee_salary":1,
 "created-date":null}</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="101.5" spans="1:6">
+    <row r="25" s="2" customFormat="1" ht="116" spans="1:6">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4">
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D25" s="4">
+        <v>100</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B25,",",CHAR(10),$C$1,C25,",",CHAR(10),$D$1,D25,",",CHAR(10),$E$1,E25,"}")</f>
         <v>{"id":34,
-"employee_name":invalid,
-"employee_salary":valid-one of the list,
-"created-date":valid}</v>
-      </c>
-    </row>
-    <row r="26" ht="116" spans="1:6">
+"employee_name":"Dang Quoc Truowng",
+"employee_salary":100,
+"created-date":"2022-03-23"}</v>
+      </c>
+    </row>
+    <row r="26" ht="101.5" spans="1:6">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4">
         <v>34</v>
@@ -2361,28 +2462,28 @@
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B26,",",CHAR(10),$C$1,C26,",",CHAR(10),$D$1,D26,",",CHAR(10),$E$1,E26,"}")</f>
         <v>{"id":34,
 "employee_name":null,
-"employee_salary":invalid,
-"created-date":invalid}</v>
+"employee_salary":"hai lam",
+"created-date":hai lăm}</v>
       </c>
     </row>
     <row r="27" ht="101.5" spans="1:6">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4">
         <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
@@ -2393,7 +2494,7 @@
       <c r="F27" s="5" t="str">
         <f>CONCATENATE("{",$B$1,B27,",",CHAR(10),$C$1,C27,",",CHAR(10),$D$1,D27,",",CHAR(10),$E$1,E27,"}")</f>
         <v>{"id":34,
-"employee_name":valid-not in the list,
+"employee_name":"Dang Quoc Truowng",
 "employee_salary":null,
 "created-date":null}</v>
       </c>
